--- a/data/update_database.xlsx
+++ b/data/update_database.xlsx
@@ -781,7 +781,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -791,12 +791,15 @@
     <font>
       <name val="Calibri"/>
       <b/>
+      <sz val="11.000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -818,29 +821,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,10 +859,10 @@
     <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1369,11 +1372,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView topLeftCell="A22" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="17.28125"/>
+  </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="1" t="s">
@@ -1581,7 +1587,7 @@
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="3">
-        <v>3130000000</v>
+        <v>3130010488</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>46</v>
@@ -1649,7 +1655,7 @@
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="3">
-        <v>3010000000</v>
+        <v>3011611105</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>61</v>
@@ -1853,7 +1859,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="3">
-        <v>3130000000</v>
+        <v>3129205493</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>87</v>
@@ -2057,7 +2063,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="3">
-        <v>341000000000</v>
+        <v>340933203938</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>111</v>
@@ -2193,7 +2199,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="3">
-        <v>3710000000</v>
+        <v>3711503747</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>129</v>
@@ -2261,7 +2267,7 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="3">
-        <v>3130000000</v>
+        <v>3132991976</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>136</v>
@@ -2533,7 +2539,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="3">
-        <v>869000000</v>
+        <v>869443437</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>159</v>
@@ -2601,7 +2607,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="3">
-        <v>108000000</v>
+        <v>107966005</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>164</v>
@@ -2669,7 +2675,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="3">
-        <v>354000000</v>
+        <v>354165798</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>166</v>
@@ -2873,7 +2879,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="3">
-        <v>537000000</v>
+        <v>536817926</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>183</v>
@@ -2941,7 +2947,7 @@
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="3">
-        <v>3370000000</v>
+        <v>3372305881</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>185</v>
@@ -3009,7 +3015,7 @@
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="3">
-        <v>869000000</v>
+        <v>869443343</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>190</v>
@@ -3349,7 +3355,7 @@
     </row>
     <row r="30" ht="14.25">
       <c r="A30" s="3">
-        <v>4240000000</v>
+        <v>4240504570</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>209</v>
@@ -3485,7 +3491,7 @@
     </row>
     <row r="32" ht="14.25">
       <c r="A32" s="3">
-        <v>107000000</v>
+        <v>106739810</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>217</v>
@@ -3553,7 +3559,7 @@
     </row>
     <row r="33" ht="14.25">
       <c r="A33" s="3">
-        <v>3370000000</v>
+        <v>3372306913</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>221</v>
@@ -4165,7 +4171,7 @@
     </row>
     <row r="42" ht="14.25">
       <c r="A42" s="3">
-        <v>354000000</v>
+        <v>353902582</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>253</v>

--- a/data/update_database.xlsx
+++ b/data/update_database.xlsx
@@ -9,14 +9,14 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$437</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$436</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1230">
   <si>
     <t>number</t>
   </si>
@@ -2391,48 +2391,48 @@
     <t>Лавр</t>
   </si>
   <si>
+    <t>Лайм</t>
+  </si>
+  <si>
+    <t>125/129 </t>
+  </si>
+  <si>
+    <t>87/89 </t>
+  </si>
+  <si>
+    <t>ЛАЙФЛОНГ</t>
+  </si>
+  <si>
+    <t>Ламанш</t>
+  </si>
+  <si>
+    <t>162/168 </t>
+  </si>
+  <si>
+    <t>Ламатросс</t>
+  </si>
+  <si>
+    <t>143/143 </t>
+  </si>
+  <si>
+    <t>115/119 </t>
+  </si>
+  <si>
+    <t>Ландер</t>
+  </si>
+  <si>
+    <t>Лаурин</t>
+  </si>
+  <si>
+    <t>Лаутастар</t>
+  </si>
+  <si>
+    <t>264/268</t>
+  </si>
+  <si>
     <t>162/162</t>
   </si>
   <si>
-    <t>Лайм</t>
-  </si>
-  <si>
-    <t>125/129 </t>
-  </si>
-  <si>
-    <t>87/89 </t>
-  </si>
-  <si>
-    <t>ЛАЙФЛОНГ</t>
-  </si>
-  <si>
-    <t>Ламанш</t>
-  </si>
-  <si>
-    <t>162/168 </t>
-  </si>
-  <si>
-    <t>Ламатросс</t>
-  </si>
-  <si>
-    <t>143/143 </t>
-  </si>
-  <si>
-    <t>115/119 </t>
-  </si>
-  <si>
-    <t>Ландер</t>
-  </si>
-  <si>
-    <t>Лаурин</t>
-  </si>
-  <si>
-    <t>Лаутастар</t>
-  </si>
-  <si>
-    <t>264/268</t>
-  </si>
-  <si>
     <t>Леду</t>
   </si>
   <si>
@@ -3270,7 +3270,10 @@
     <t>Смирный</t>
   </si>
   <si>
-    <t>166/176</t>
+    <t>288/292</t>
+  </si>
+  <si>
+    <t>166/176 </t>
   </si>
   <si>
     <t>Снежный</t>
@@ -3285,9 +3288,6 @@
     <t>Снежок</t>
   </si>
   <si>
-    <t>288/292</t>
-  </si>
-  <si>
     <t>149/153</t>
   </si>
   <si>
@@ -3513,9 +3513,6 @@
     <t>252/252 </t>
   </si>
   <si>
-    <t>166/176 </t>
-  </si>
-  <si>
     <t>Фэкс</t>
   </si>
   <si>
@@ -3666,9 +3663,6 @@
     <t xml:space="preserve">Кристмас </t>
   </si>
   <si>
-    <t>2192-/219</t>
-  </si>
-  <si>
     <t xml:space="preserve">БРАВАДО </t>
   </si>
   <si>
@@ -3700,13 +3694,25 @@
   </si>
   <si>
     <t>90/103</t>
+  </si>
+  <si>
+    <t>Бертин</t>
+  </si>
+  <si>
+    <t>260/262</t>
+  </si>
+  <si>
+    <t>200/204</t>
+  </si>
+  <si>
+    <t>250/254</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -3731,7 +3737,6 @@
     </font>
     <font>
       <name val="Times New Roman"/>
-      <color indexed="64"/>
       <sz val="12.000000"/>
     </font>
     <font>
@@ -3739,12 +3744,8 @@
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12.000000"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3757,8 +3758,14 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3810,34 +3817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3853,7 +3832,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3880,10 +3859,10 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3895,10 +3874,20 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -18482,20 +18471,20 @@
       <c r="Q207" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="R207" s="7" t="s">
+      <c r="R207" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="S207" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="S207" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="T207" s="7" t="s">
-        <v>791</v>
+        <v>497</v>
       </c>
       <c r="U207" s="7" t="s">
         <v>27</v>
       </c>
       <c r="V207" s="7" t="s">
-        <v>295</v>
+        <v>27</v>
       </c>
     </row>
     <row r="208" ht="14.25">
@@ -18503,7 +18492,7 @@
         <v>60650</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>51</v>
@@ -18571,7 +18560,7 @@
         <v>60650</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>23</v>
@@ -18601,7 +18590,7 @@
         <v>29</v>
       </c>
       <c r="L209" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M209" s="7" t="s">
         <v>27</v>
@@ -18622,7 +18611,7 @@
         <v>104</v>
       </c>
       <c r="S209" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="T209" s="7" t="s">
         <v>185</v>
@@ -18639,7 +18628,7 @@
         <v>71922001</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>206</v>
@@ -18707,7 +18696,7 @@
         <v>107869961</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>51</v>
@@ -18775,7 +18764,7 @@
         <v>107869961</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>23</v>
@@ -18829,7 +18818,7 @@
         <v>386</v>
       </c>
       <c r="T212" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U212" s="7" t="s">
         <v>27</v>
@@ -18843,7 +18832,7 @@
         <v>110840241</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>23</v>
@@ -18888,10 +18877,10 @@
         <v>32</v>
       </c>
       <c r="Q213" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="R213" s="7" t="s">
         <v>799</v>
-      </c>
-      <c r="R213" s="7" t="s">
-        <v>800</v>
       </c>
       <c r="S213" s="7" t="s">
         <v>48</v>
@@ -18911,7 +18900,7 @@
         <v>3372306913</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>51</v>
@@ -18979,7 +18968,7 @@
         <v>3372306913</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>84</v>
@@ -19047,7 +19036,7 @@
         <v>3372306913</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>51</v>
@@ -19115,7 +19104,7 @@
         <v>107359223</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>23</v>
@@ -19169,7 +19158,7 @@
         <v>105</v>
       </c>
       <c r="T217" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U217" s="7" t="s">
         <v>27</v>
@@ -19183,13 +19172,13 @@
         <v>106739810</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>338</v>
@@ -19237,7 +19226,7 @@
         <v>35</v>
       </c>
       <c r="T218" s="7" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="U218" s="7" t="s">
         <v>27</v>
@@ -19251,13 +19240,13 @@
         <v>106739810</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>338</v>
@@ -19305,7 +19294,7 @@
         <v>559</v>
       </c>
       <c r="T219" s="7" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="U219" s="7" t="s">
         <v>27</v>
@@ -19979,7 +19968,7 @@
         <v>385</v>
       </c>
       <c r="R229" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="S229" s="7" t="s">
         <v>832</v>
@@ -21005,7 +20994,7 @@
         <v>868</v>
       </c>
       <c r="T244" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U244" s="7" t="s">
         <v>27</v>
@@ -26096,7 +26085,7 @@
         <v>1021</v>
       </c>
       <c r="Q319" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R319" s="7" t="s">
         <v>34</v>
@@ -26581,7 +26570,7 @@
         <v>280</v>
       </c>
       <c r="T326" s="7" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="U326" s="7" t="s">
         <v>86</v>
@@ -26640,7 +26629,7 @@
         <v>1036</v>
       </c>
       <c r="Q327" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R327" s="7" t="s">
         <v>104</v>
@@ -26717,7 +26706,7 @@
         <v>1038</v>
       </c>
       <c r="T328" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="U328" t="s">
         <v>27</v>
@@ -26785,7 +26774,7 @@
         <v>524</v>
       </c>
       <c r="T329" s="7" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="U329" s="7" t="s">
         <v>27</v>
@@ -28698,202 +28687,202 @@
         <v>27</v>
       </c>
     </row>
-    <row r="358" ht="14.25">
-      <c r="A358" s="8">
+    <row r="358" s="17" customFormat="1" ht="14.25">
+      <c r="A358" s="18">
         <v>5477</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B358" s="19" t="s">
         <v>1083</v>
       </c>
-      <c r="C358" s="7" t="s">
+      <c r="C358" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D358" s="7" t="s">
+      <c r="D358" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E358" s="7" t="s">
+      <c r="E358" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="F358" s="7" t="s">
+      <c r="F358" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G358" s="20" t="s">
+        <v>704</v>
+      </c>
+      <c r="H358" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="I358" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J358" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="K358" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="L358" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="M358" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N358" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="O358" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P358" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q358" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="R358" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="S358" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="T358" s="20" t="s">
+        <v>1085</v>
+      </c>
+      <c r="U358" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V358" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="359" ht="14.25">
+      <c r="A359" s="5">
+        <v>85</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D359" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E359" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="F359" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G359" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H359" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I359" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J359" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K359" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="L359" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M359" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N359" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="O359" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P359" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q359" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="R359" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S359" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T359" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="U359" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V359" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="360" ht="14.25">
+      <c r="A360" s="8">
+        <v>3740</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D360" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F360" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G358" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H358" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I358" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J358" s="7" t="s">
+      <c r="G360" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="H360" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="I360" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J360" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K358" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L358" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M358" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N358" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="O358" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P358" s="7" t="s">
+      <c r="K360" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L360" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M360" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N360" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O360" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P360" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q358" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="R358" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S358" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="T358" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U358" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V358" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="359" ht="14.25">
-      <c r="A359" s="8">
-        <v>5477</v>
-      </c>
-      <c r="B359" s="7" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D359" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E359" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F359" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G359" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H359" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I359" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J359" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K359" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="L359" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M359" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N359" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="O359" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P359" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q359" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="R359" s="7" t="s">
+      <c r="Q360" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="R360" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="S359" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="T359" s="7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="U359" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V359" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="360" ht="14.25">
-      <c r="A360" s="5">
-        <v>85</v>
-      </c>
-      <c r="B360" s="6" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D360" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E360" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="F360" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G360" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H360" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I360" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J360" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K360" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="L360" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M360" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N360" s="7" t="s">
-        <v>1086</v>
-      </c>
-      <c r="O360" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P360" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q360" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="R360" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="S360" s="7" t="s">
-        <v>1087</v>
+        <v>244</v>
       </c>
       <c r="T360" s="7" t="s">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="U360" s="7" t="s">
         <v>27</v>
@@ -28904,46 +28893,46 @@
     </row>
     <row r="361" ht="14.25">
       <c r="A361" s="8">
-        <v>3740</v>
+        <v>11218183</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="C361" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E361" s="7" t="s">
-        <v>278</v>
+        <v>53</v>
       </c>
       <c r="F361" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G361" s="7" t="s">
-        <v>624</v>
+        <v>27</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>855</v>
+        <v>27</v>
       </c>
       <c r="I361" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J361" s="7" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="K361" s="7" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="L361" s="7" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="M361" s="7" t="s">
-        <v>1089</v>
+        <v>27</v>
       </c>
       <c r="N361" s="7" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="O361" s="7" t="s">
         <v>27</v>
@@ -28952,16 +28941,16 @@
         <v>61</v>
       </c>
       <c r="Q361" s="7" t="s">
-        <v>1090</v>
+        <v>132</v>
       </c>
       <c r="R361" s="7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="S361" s="7" t="s">
-        <v>244</v>
+        <v>673</v>
       </c>
       <c r="T361" s="7" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="U361" s="7" t="s">
         <v>27</v>
@@ -28972,19 +28961,19 @@
     </row>
     <row r="362" ht="14.25">
       <c r="A362" s="8">
-        <v>11218183</v>
+        <v>65801592</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="D362" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E362" s="7" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="F362" s="7" t="s">
         <v>86</v>
@@ -28996,406 +28985,406 @@
         <v>27</v>
       </c>
       <c r="I362" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J362" s="7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="K362" s="7" t="s">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="L362" s="7" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="M362" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N362" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="O362" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="P362" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q362" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="R362" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="S362" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="T362" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="U362" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="V362" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="363" ht="14.25">
+      <c r="A363" s="5">
+        <v>318</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D363" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E363" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F363" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G363" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H363" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I363" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J363" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K363" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L363" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M363" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N363" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="O363" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P363" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q363" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="R363" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S363" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="T363" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="U363" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V363" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="364" ht="14.25">
+      <c r="A364" s="8">
+        <v>870273946</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D364" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E364" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F364" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G364" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H364" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="I364" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J364" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K364" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L364" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M364" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N364" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O364" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P364" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q362" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="R362" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S362" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="T362" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U362" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V362" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="363" ht="14.25">
-      <c r="A363" s="8">
-        <v>65801592</v>
-      </c>
-      <c r="B363" s="7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C363" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D363" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E363" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F363" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G363" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H363" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I363" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="J363" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K363" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L363" s="7" t="s">
+      <c r="Q364" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="R364" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S364" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="T364" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="U364" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V364" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="365" ht="14.25">
+      <c r="A365" s="5">
+        <v>72850448</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D365" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E365" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F365" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G365" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H365" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I365" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="J365" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K365" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L365" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M365" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N365" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O365" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P365" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q365" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="R365" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="S365" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T365" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="U365" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="V365" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="366" ht="14.25">
+      <c r="A366" s="8">
+        <v>3130010295</v>
+      </c>
+      <c r="B366" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D366" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E366" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F366" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G366" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H366" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I366" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J366" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K366" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L366" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M363" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N363" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="O363" s="7" t="s">
+      <c r="M366" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="N366" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O366" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P363" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q363" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="R363" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="S363" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="T363" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="U363" s="7" t="s">
+      <c r="P366" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q366" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="R366" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="S366" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="T366" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="U366" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="V363" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="364" ht="14.25">
-      <c r="A364" s="5">
-        <v>318</v>
-      </c>
-      <c r="B364" s="6" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C364" s="7" t="s">
+      <c r="V366" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="367" ht="14.25">
+      <c r="A367" s="5">
+        <v>110328084</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C367" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D364" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E364" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F364" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G364" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H364" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I364" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J364" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="K364" s="7" t="s">
-        <v>1094</v>
-      </c>
-      <c r="L364" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M364" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N364" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="O364" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P364" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q364" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="R364" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S364" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="T364" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="U364" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V364" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="365" ht="14.25">
-      <c r="A365" s="8">
-        <v>870273946</v>
-      </c>
-      <c r="B365" s="7" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C365" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D365" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E365" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F365" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G365" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="H365" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I365" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J365" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K365" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L365" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M365" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N365" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O365" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P365" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q365" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="R365" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S365" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="T365" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="U365" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V365" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="366" ht="14.25">
-      <c r="A366" s="5">
-        <v>72850448</v>
-      </c>
-      <c r="B366" s="6" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D366" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E366" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F366" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G366" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H366" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I366" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="J366" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K366" s="7" t="s">
+      <c r="D367" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="E367" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F367" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G367" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H367" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I367" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J367" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K367" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L366" s="7" t="s">
+      <c r="L367" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M367" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N367" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="O367" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P367" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q367" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="R367" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="M366" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N366" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O366" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="P366" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q366" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="R366" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="S366" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="T366" s="7" t="s">
-        <v>1097</v>
-      </c>
-      <c r="U366" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="V366" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="367" ht="14.25">
-      <c r="A367" s="8">
-        <v>3130010295</v>
-      </c>
-      <c r="B367" s="7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D367" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E367" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F367" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G367" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H367" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I367" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="J367" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K367" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L367" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M367" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="N367" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O367" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P367" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q367" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="R367" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="S367" s="7" t="s">
-        <v>324</v>
+        <v>164</v>
       </c>
       <c r="T367" s="7" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="U367" s="7" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="V367" s="7" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
     </row>
     <row r="368" ht="14.25">
       <c r="A368" s="5">
-        <v>110328084</v>
+        <v>207</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D368" s="7" t="s">
-        <v>930</v>
+        <v>27</v>
       </c>
       <c r="E368" s="7" t="s">
-        <v>398</v>
+        <v>545</v>
       </c>
       <c r="F368" s="7" t="s">
-        <v>40</v>
+        <v>1101</v>
       </c>
       <c r="G368" s="7" t="s">
         <v>27</v>
@@ -29407,37 +29396,37 @@
         <v>27</v>
       </c>
       <c r="J368" s="7" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="K368" s="7" t="s">
-        <v>29</v>
+        <v>607</v>
       </c>
       <c r="L368" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M368" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N368" s="7" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="O368" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P368" s="7" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="Q368" s="7" t="s">
-        <v>931</v>
+        <v>103</v>
       </c>
       <c r="R368" s="7" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="S368" s="7" t="s">
-        <v>164</v>
+        <v>1102</v>
       </c>
       <c r="T368" s="7" t="s">
-        <v>373</v>
+        <v>874</v>
       </c>
       <c r="U368" s="7" t="s">
         <v>27</v>
@@ -29447,23 +29436,23 @@
       </c>
     </row>
     <row r="369" ht="14.25">
-      <c r="A369" s="5">
-        <v>207</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>1100</v>
+      <c r="A369" s="8">
+        <v>867</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>1103</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D369" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E369" s="7" t="s">
-        <v>545</v>
+        <v>27</v>
       </c>
       <c r="F369" s="7" t="s">
-        <v>1101</v>
+        <v>640</v>
       </c>
       <c r="G369" s="7" t="s">
         <v>27</v>
@@ -29475,37 +29464,37 @@
         <v>27</v>
       </c>
       <c r="J369" s="7" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="K369" s="7" t="s">
-        <v>607</v>
+        <v>304</v>
       </c>
       <c r="L369" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M369" s="7" t="s">
-        <v>27</v>
+        <v>1104</v>
       </c>
       <c r="N369" s="7" t="s">
-        <v>508</v>
+        <v>27</v>
       </c>
       <c r="O369" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P369" s="7" t="s">
-        <v>125</v>
+        <v>1105</v>
       </c>
       <c r="Q369" s="7" t="s">
-        <v>103</v>
+        <v>1106</v>
       </c>
       <c r="R369" s="7" t="s">
-        <v>127</v>
+        <v>924</v>
       </c>
       <c r="S369" s="7" t="s">
-        <v>1102</v>
+        <v>409</v>
       </c>
       <c r="T369" s="7" t="s">
-        <v>874</v>
+        <v>27</v>
       </c>
       <c r="U369" s="7" t="s">
         <v>27</v>
@@ -29516,22 +29505,22 @@
     </row>
     <row r="370" ht="14.25">
       <c r="A370" s="8">
-        <v>867</v>
+        <v>108676086</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>27</v>
+        <v>623</v>
       </c>
       <c r="E370" s="7" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="F370" s="7" t="s">
-        <v>640</v>
+        <v>273</v>
       </c>
       <c r="G370" s="7" t="s">
         <v>27</v>
@@ -29543,37 +29532,37 @@
         <v>27</v>
       </c>
       <c r="J370" s="7" t="s">
-        <v>27</v>
+        <v>540</v>
       </c>
       <c r="K370" s="7" t="s">
-        <v>304</v>
+        <v>143</v>
       </c>
       <c r="L370" s="7" t="s">
         <v>27</v>
       </c>
       <c r="M370" s="7" t="s">
-        <v>1104</v>
+        <v>27</v>
       </c>
       <c r="N370" s="7" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="O370" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P370" s="7" t="s">
-        <v>1105</v>
+        <v>353</v>
       </c>
       <c r="Q370" s="7" t="s">
-        <v>1106</v>
+        <v>233</v>
       </c>
       <c r="R370" s="7" t="s">
-        <v>924</v>
+        <v>299</v>
       </c>
       <c r="S370" s="7" t="s">
-        <v>409</v>
+        <v>147</v>
       </c>
       <c r="T370" s="7" t="s">
-        <v>27</v>
+        <v>765</v>
       </c>
       <c r="U370" s="7" t="s">
         <v>27</v>
@@ -29584,22 +29573,22 @@
     </row>
     <row r="371" ht="14.25">
       <c r="A371" s="8">
-        <v>108676086</v>
+        <v>354049631</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D371" s="7" t="s">
-        <v>623</v>
+        <v>109</v>
       </c>
       <c r="E371" s="7" t="s">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="F371" s="7" t="s">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c r="G371" s="7" t="s">
         <v>27</v>
@@ -29611,37 +29600,37 @@
         <v>27</v>
       </c>
       <c r="J371" s="7" t="s">
-        <v>540</v>
+        <v>928</v>
       </c>
       <c r="K371" s="7" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="L371" s="7" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M371" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N371" s="7" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="O371" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P371" s="7" t="s">
-        <v>353</v>
+        <v>89</v>
       </c>
       <c r="Q371" s="7" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="R371" s="7" t="s">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="S371" s="7" t="s">
-        <v>147</v>
+        <v>280</v>
       </c>
       <c r="T371" s="7" t="s">
-        <v>765</v>
+        <v>27</v>
       </c>
       <c r="U371" s="7" t="s">
         <v>27</v>
@@ -29651,159 +29640,159 @@
       </c>
     </row>
     <row r="372" ht="14.25">
-      <c r="A372" s="8">
-        <v>354049631</v>
-      </c>
-      <c r="B372" s="7" t="s">
-        <v>1108</v>
+      <c r="A372" s="5">
+        <v>22930</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>1109</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="D372" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E372" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F372" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G372" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H372" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I372" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J372" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K372" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L372" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M372" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N372" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="O372" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P372" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="Q372" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="R372" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S372" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="T372" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="U372" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V372" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="373" ht="14.25">
+      <c r="A373" s="8">
+        <v>69981349</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C373" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D373" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E372" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F372" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G372" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H372" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I372" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J372" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="K372" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L372" s="7" t="s">
+      <c r="E373" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F373" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G373" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H373" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I373" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="J373" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K373" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L373" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M372" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N372" s="7" t="s">
+      <c r="M373" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N373" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="O372" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P372" s="7" t="s">
+      <c r="O373" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P373" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Q372" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R372" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S372" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="T372" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U372" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V372" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="373" ht="14.25">
-      <c r="A373" s="5">
-        <v>22930</v>
-      </c>
-      <c r="B373" s="6" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D373" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E373" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F373" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G373" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H373" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I373" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J373" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K373" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L373" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M373" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N373" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="O373" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P373" s="7" t="s">
-        <v>1081</v>
-      </c>
       <c r="Q373" s="7" t="s">
-        <v>471</v>
+        <v>259</v>
       </c>
       <c r="R373" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="S373" s="7" t="s">
-        <v>442</v>
+        <v>92</v>
       </c>
       <c r="T373" s="7" t="s">
-        <v>751</v>
+        <v>286</v>
       </c>
       <c r="U373" s="7" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="V373" s="7" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
     </row>
     <row r="374" ht="14.25">
       <c r="A374" s="8">
-        <v>69981349</v>
+        <v>71922147</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C374" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E374" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="F374" s="7" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G374" s="7" t="s">
         <v>27</v>
@@ -29812,13 +29801,13 @@
         <v>27</v>
       </c>
       <c r="I374" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="J374" s="7" t="s">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="K374" s="7" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="L374" s="7" t="s">
         <v>58</v>
@@ -29827,48 +29816,48 @@
         <v>27</v>
       </c>
       <c r="N374" s="7" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
       <c r="O374" s="7" t="s">
-        <v>76</v>
+        <v>704</v>
       </c>
       <c r="P374" s="7" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="Q374" s="7" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="R374" s="7" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="S374" s="7" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="T374" s="7" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="U374" s="7" t="s">
         <v>156</v>
       </c>
       <c r="V374" s="7" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
     </row>
     <row r="375" ht="14.25">
       <c r="A375" s="8">
-        <v>71922147</v>
+        <v>72453542</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C375" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D375" s="7" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="E375" s="7" t="s">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="F375" s="7" t="s">
         <v>54</v>
@@ -29880,13 +29869,13 @@
         <v>27</v>
       </c>
       <c r="I375" s="7" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="J375" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K375" s="7" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="L375" s="7" t="s">
         <v>58</v>
@@ -29895,51 +29884,51 @@
         <v>27</v>
       </c>
       <c r="N375" s="7" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="O375" s="7" t="s">
-        <v>704</v>
+        <v>76</v>
       </c>
       <c r="P375" s="7" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="Q375" s="7" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="R375" s="7" t="s">
         <v>227</v>
       </c>
       <c r="S375" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="T375" s="7" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="U375" s="7" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="V375" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="376" ht="14.25">
       <c r="A376" s="8">
-        <v>72453542</v>
+        <v>3130010384</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D376" s="7" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E376" s="7" t="s">
-        <v>85</v>
+        <v>278</v>
       </c>
       <c r="F376" s="7" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="G376" s="7" t="s">
         <v>27</v>
@@ -29948,13 +29937,13 @@
         <v>27</v>
       </c>
       <c r="I376" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="J376" s="7" t="s">
-        <v>72</v>
+        <v>419</v>
       </c>
       <c r="K376" s="7" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="L376" s="7" t="s">
         <v>58</v>
@@ -29963,51 +29952,51 @@
         <v>27</v>
       </c>
       <c r="N376" s="7" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="O376" s="7" t="s">
         <v>76</v>
       </c>
       <c r="P376" s="7" t="s">
-        <v>61</v>
+        <v>514</v>
       </c>
       <c r="Q376" s="7" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="R376" s="7" t="s">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="S376" s="7" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="T376" s="7" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="U376" s="7" t="s">
         <v>203</v>
       </c>
       <c r="V376" s="7" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
     </row>
     <row r="377" ht="14.25">
       <c r="A377" s="8">
-        <v>3130010384</v>
+        <v>71922072</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D377" s="7" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="E377" s="7" t="s">
         <v>278</v>
       </c>
       <c r="F377" s="7" t="s">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="G377" s="7" t="s">
         <v>27</v>
@@ -30019,173 +30008,173 @@
         <v>269</v>
       </c>
       <c r="J377" s="7" t="s">
-        <v>419</v>
+        <v>72</v>
       </c>
       <c r="K377" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L377" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M377" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N377" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O377" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P377" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q377" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="R377" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M377" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N377" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="O377" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P377" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q377" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="R377" s="7" t="s">
+      <c r="S377" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T377" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="U377" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V377" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="378" ht="14.25">
+      <c r="A378" s="5">
+        <v>68181835</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D378" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="E378" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F378" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G378" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="H378" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="I378" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J378" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K378" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L378" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M378" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N378" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O378" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P378" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q378" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="R378" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S378" s="7" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T378" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="U378" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V378" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="379" ht="14.25">
+      <c r="A379" s="8">
+        <v>200</v>
+      </c>
+      <c r="B379" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C379" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D379" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E379" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F379" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G379" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H379" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I379" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J379" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K379" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L379" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M379" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N379" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O379" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P379" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q379" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R379" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S377" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="T377" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="U377" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="V377" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="378" ht="14.25">
-      <c r="A378" s="8">
-        <v>71922072</v>
-      </c>
-      <c r="B378" s="7" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D378" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E378" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F378" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G378" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H378" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I378" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="J378" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K378" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L378" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M378" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N378" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="O378" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P378" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q378" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="R378" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S378" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="T378" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="U378" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V378" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="379" ht="14.25">
-      <c r="A379" s="5">
-        <v>68181835</v>
-      </c>
-      <c r="B379" s="6" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D379" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="E379" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F379" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="G379" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="H379" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="I379" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J379" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="K379" s="7" t="s">
-        <v>1116</v>
-      </c>
-      <c r="L379" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M379" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N379" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O379" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P379" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q379" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="R379" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="S379" s="7" t="s">
-        <v>1117</v>
+        <v>386</v>
       </c>
       <c r="T379" s="7" t="s">
-        <v>1118</v>
+        <v>281</v>
       </c>
       <c r="U379" s="7" t="s">
         <v>27</v>
@@ -30198,11 +30187,11 @@
       <c r="A380" s="8">
         <v>200</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B380" s="7" t="s">
         <v>1119</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D380" s="7" t="s">
         <v>52</v>
@@ -30250,7 +30239,7 @@
         <v>91</v>
       </c>
       <c r="S380" s="7" t="s">
-        <v>386</v>
+        <v>275</v>
       </c>
       <c r="T380" s="7" t="s">
         <v>281</v>
@@ -30264,22 +30253,22 @@
     </row>
     <row r="381" ht="14.25">
       <c r="A381" s="8">
-        <v>200</v>
+        <v>69701703</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D381" s="7" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="E381" s="7" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="F381" s="7" t="s">
-        <v>521</v>
+        <v>110</v>
       </c>
       <c r="G381" s="7" t="s">
         <v>27</v>
@@ -30288,66 +30277,66 @@
         <v>27</v>
       </c>
       <c r="I381" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J381" s="7" t="s">
-        <v>476</v>
+        <v>236</v>
       </c>
       <c r="K381" s="7" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="L381" s="7" t="s">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="M381" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N381" s="7" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="O381" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="P381" s="7" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="Q381" s="7" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="R381" s="7" t="s">
         <v>91</v>
       </c>
       <c r="S381" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="T381" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="U381" s="7" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="V381" s="7" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="382" ht="14.25">
       <c r="A382" s="8">
-        <v>69701703</v>
+        <v>3372308246</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D382" s="7" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E382" s="7" t="s">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="F382" s="7" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G382" s="7" t="s">
         <v>27</v>
@@ -30356,66 +30345,66 @@
         <v>27</v>
       </c>
       <c r="I382" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="J382" s="7" t="s">
         <v>236</v>
       </c>
       <c r="K382" s="7" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="L382" s="7" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="M382" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N382" s="7" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="O382" s="7" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="P382" s="7" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="Q382" s="7" t="s">
-        <v>149</v>
+        <v>474</v>
       </c>
       <c r="R382" s="7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="S382" s="7" t="s">
-        <v>292</v>
+        <v>64</v>
       </c>
       <c r="T382" s="7" t="s">
         <v>288</v>
       </c>
       <c r="U382" s="7" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="V382" s="7" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="383" ht="14.25">
       <c r="A383" s="8">
-        <v>3372308246</v>
+        <v>56438534</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D383" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E383" s="7" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F383" s="7" t="s">
-        <v>86</v>
+        <v>481</v>
       </c>
       <c r="G383" s="7" t="s">
         <v>27</v>
@@ -30424,16 +30413,16 @@
         <v>27</v>
       </c>
       <c r="I383" s="7" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="J383" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="K383" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L383" s="7" t="s">
-        <v>58</v>
+        <v>154</v>
       </c>
       <c r="M383" s="7" t="s">
         <v>27</v>
@@ -30442,39 +30431,39 @@
         <v>59</v>
       </c>
       <c r="O383" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="P383" s="7" t="s">
         <v>251</v>
       </c>
       <c r="Q383" s="7" t="s">
-        <v>474</v>
+        <v>209</v>
       </c>
       <c r="R383" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S383" s="7" t="s">
-        <v>64</v>
+        <v>1123</v>
       </c>
       <c r="T383" s="7" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="U383" s="7" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="V383" s="7" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
     </row>
     <row r="384" ht="14.25">
       <c r="A384" s="8">
-        <v>56438534</v>
+        <v>3130010457</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D384" s="7" t="s">
         <v>69</v>
@@ -30483,7 +30472,7 @@
         <v>231</v>
       </c>
       <c r="F384" s="7" t="s">
-        <v>481</v>
+        <v>131</v>
       </c>
       <c r="G384" s="7" t="s">
         <v>27</v>
@@ -30492,16 +30481,16 @@
         <v>27</v>
       </c>
       <c r="I384" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="J384" s="7" t="s">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="K384" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L384" s="7" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="M384" s="7" t="s">
         <v>27</v>
@@ -30513,45 +30502,45 @@
         <v>60</v>
       </c>
       <c r="P384" s="7" t="s">
-        <v>251</v>
+        <v>1125</v>
       </c>
       <c r="Q384" s="7" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="R384" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="S384" s="7" t="s">
-        <v>1123</v>
+        <v>324</v>
       </c>
       <c r="T384" s="7" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="U384" s="7" t="s">
-        <v>203</v>
+        <v>325</v>
       </c>
       <c r="V384" s="7" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
     </row>
     <row r="385" ht="14.25">
       <c r="A385" s="8">
-        <v>3130010457</v>
+        <v>174</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
       <c r="D385" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E385" s="7" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="F385" s="7" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="G385" s="7" t="s">
         <v>27</v>
@@ -30560,312 +30549,312 @@
         <v>27</v>
       </c>
       <c r="I385" s="7" t="s">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="J385" s="7" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="K385" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L385" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M385" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N385" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O385" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P385" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q385" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="R385" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="S385" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T385" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U385" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V385" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="386" ht="14.25">
+      <c r="A386" s="5">
+        <v>3129128763</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D386" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E386" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F386" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G386" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H386" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I386" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J386" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K386" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L385" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M385" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N385" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O385" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P385" s="7" t="s">
-        <v>1125</v>
-      </c>
-      <c r="Q385" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="R385" s="7" t="s">
+      <c r="L386" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M386" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N386" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O386" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P386" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q386" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="R386" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S385" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="T385" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="U385" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="V385" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="386" ht="14.25">
-      <c r="A386" s="8">
-        <v>174</v>
-      </c>
-      <c r="B386" s="7" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D386" s="7" t="s">
+      <c r="S386" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="T386" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="U386" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="V386" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="387" ht="14.25">
+      <c r="A387" s="8">
+        <v>5697</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D387" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E386" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F386" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G386" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H386" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I386" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J386" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K386" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L386" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M386" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N386" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="O386" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P386" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q386" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="R386" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S386" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="T386" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U386" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V386" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="387" ht="14.25">
-      <c r="A387" s="5">
-        <v>3129128763</v>
-      </c>
-      <c r="B387" s="6" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C387" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D387" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="E387" s="7" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F387" s="7" t="s">
-        <v>481</v>
+        <v>70</v>
       </c>
       <c r="G387" s="7" t="s">
-        <v>27</v>
+        <v>522</v>
       </c>
       <c r="H387" s="7" t="s">
-        <v>27</v>
+        <v>855</v>
       </c>
       <c r="I387" s="7" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="J387" s="7" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="K387" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L387" s="7" t="s">
-        <v>144</v>
+        <v>284</v>
       </c>
       <c r="M387" s="7" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="N387" s="7" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O387" s="7" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="P387" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="Q387" s="7" t="s">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="R387" s="7" t="s">
         <v>91</v>
       </c>
       <c r="S387" s="7" t="s">
-        <v>237</v>
+        <v>559</v>
       </c>
       <c r="T387" s="7" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="U387" s="7" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="V387" s="7" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
     </row>
     <row r="388" ht="14.25">
-      <c r="A388" s="8">
-        <v>5697</v>
-      </c>
-      <c r="B388" s="7" t="s">
-        <v>1128</v>
+      <c r="A388" s="5">
+        <v>6236</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>1129</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D388" s="7" t="s">
-        <v>69</v>
+        <v>1130</v>
       </c>
       <c r="E388" s="7" t="s">
-        <v>85</v>
+        <v>755</v>
       </c>
       <c r="F388" s="7" t="s">
-        <v>70</v>
+        <v>1033</v>
       </c>
       <c r="G388" s="7" t="s">
-        <v>522</v>
+        <v>892</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>855</v>
+        <v>634</v>
       </c>
       <c r="I388" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J388" s="7" t="s">
-        <v>323</v>
+        <v>489</v>
       </c>
       <c r="K388" s="7" t="s">
-        <v>57</v>
+        <v>1116</v>
       </c>
       <c r="L388" s="7" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
       <c r="M388" s="7" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="N388" s="7" t="s">
-        <v>59</v>
+        <v>424</v>
       </c>
       <c r="O388" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P388" s="7" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="Q388" s="7" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="R388" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="S388" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="T388" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="U388" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V388" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="389" ht="14.25">
+      <c r="A389" s="8">
+        <v>532</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D389" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E389" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F389" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G389" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H389" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I389" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J389" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K389" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="L389" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M389" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N389" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="O389" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P389" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q389" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="R389" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S388" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="T388" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="U388" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V388" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="389" ht="14.25">
-      <c r="A389" s="5">
-        <v>6236</v>
-      </c>
-      <c r="B389" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D389" s="7" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E389" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="F389" s="7" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G389" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="H389" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="I389" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J389" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K389" s="7" t="s">
-        <v>1116</v>
-      </c>
-      <c r="L389" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M389" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N389" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="O389" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P389" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q389" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R389" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="S389" s="7" t="s">
-        <v>546</v>
+        <v>324</v>
       </c>
       <c r="T389" s="7" t="s">
-        <v>106</v>
+        <v>1133</v>
       </c>
       <c r="U389" s="7" t="s">
         <v>27</v>
@@ -30876,22 +30865,22 @@
     </row>
     <row r="390" ht="14.25">
       <c r="A390" s="8">
-        <v>532</v>
+        <v>10677430</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C390" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D390" s="7" t="s">
-        <v>332</v>
+        <v>109</v>
       </c>
       <c r="E390" s="7" t="s">
-        <v>231</v>
+        <v>447</v>
       </c>
       <c r="F390" s="7" t="s">
-        <v>429</v>
+        <v>1135</v>
       </c>
       <c r="G390" s="7" t="s">
         <v>27</v>
@@ -30903,7 +30892,7 @@
         <v>27</v>
       </c>
       <c r="J390" s="7" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="K390" s="7" t="s">
         <v>735</v>
@@ -30915,25 +30904,25 @@
         <v>27</v>
       </c>
       <c r="N390" s="7" t="s">
-        <v>377</v>
+        <v>198</v>
       </c>
       <c r="O390" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P390" s="7" t="s">
-        <v>353</v>
+        <v>61</v>
       </c>
       <c r="Q390" s="7" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="R390" s="7" t="s">
         <v>91</v>
       </c>
       <c r="S390" s="7" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="T390" s="7" t="s">
-        <v>1133</v>
+        <v>313</v>
       </c>
       <c r="U390" s="7" t="s">
         <v>27</v>
@@ -30943,23 +30932,23 @@
       </c>
     </row>
     <row r="391" ht="14.25">
-      <c r="A391" s="8">
-        <v>10677430</v>
-      </c>
-      <c r="B391" s="7" t="s">
-        <v>1134</v>
+      <c r="A391" s="5">
+        <v>13440568</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>1137</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E391" s="7" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="F391" s="7" t="s">
-        <v>1135</v>
+        <v>750</v>
       </c>
       <c r="G391" s="7" t="s">
         <v>27</v>
@@ -30971,131 +30960,131 @@
         <v>27</v>
       </c>
       <c r="J391" s="7" t="s">
-        <v>1136</v>
+        <v>367</v>
       </c>
       <c r="K391" s="7" t="s">
-        <v>735</v>
+        <v>29</v>
       </c>
       <c r="L391" s="7" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="M391" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N391" s="7" t="s">
-        <v>198</v>
+        <v>845</v>
       </c>
       <c r="O391" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P391" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="Q391" s="7" t="s">
-        <v>157</v>
+        <v>670</v>
       </c>
       <c r="R391" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="S391" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T391" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="U391" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V391" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="392" ht="14.25">
+      <c r="A392" s="8">
+        <v>61741713</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C392" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D392" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E392" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F392" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="G392" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H392" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I392" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J392" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K392" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L392" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M392" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N392" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="O392" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P392" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q392" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="R392" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S391" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="T391" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="U391" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V391" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="392" ht="14.25">
-      <c r="A392" s="5">
-        <v>13440568</v>
-      </c>
-      <c r="B392" s="6" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D392" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E392" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F392" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="G392" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H392" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I392" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J392" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K392" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L392" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M392" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N392" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="O392" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P392" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q392" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="R392" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="S392" s="7" t="s">
-        <v>48</v>
+        <v>485</v>
       </c>
       <c r="T392" s="7" t="s">
-        <v>497</v>
+        <v>981</v>
       </c>
       <c r="U392" s="7" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="V392" s="7" t="s">
-        <v>27</v>
+        <v>300</v>
       </c>
     </row>
     <row r="393" ht="14.25">
       <c r="A393" s="8">
-        <v>61741713</v>
+        <v>1247</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="D393" s="7" t="s">
-        <v>27</v>
+        <v>1140</v>
       </c>
       <c r="E393" s="7" t="s">
-        <v>53</v>
+        <v>404</v>
       </c>
       <c r="F393" s="7" t="s">
-        <v>640</v>
+        <v>1141</v>
       </c>
       <c r="G393" s="7" t="s">
         <v>27</v>
@@ -31107,186 +31096,186 @@
         <v>27</v>
       </c>
       <c r="J393" s="7" t="s">
-        <v>56</v>
+        <v>635</v>
       </c>
       <c r="K393" s="7" t="s">
-        <v>73</v>
+        <v>1142</v>
       </c>
       <c r="L393" s="7" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="M393" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N393" s="7" t="s">
-        <v>189</v>
+        <v>1143</v>
       </c>
       <c r="O393" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P393" s="7" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="Q393" s="7" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="R393" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="S393" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="T393" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U393" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V393" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="394" ht="14.25">
+      <c r="A394" s="5">
+        <v>109621953</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D394" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="E394" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F394" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G394" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H394" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I394" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J394" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K394" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L394" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M394" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N394" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="O394" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P394" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Q394" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="R394" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="S394" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="T394" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="U394" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V394" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="395" ht="14.25">
+      <c r="A395" s="8">
+        <v>3011611105</v>
+      </c>
+      <c r="B395" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D395" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E395" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F395" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G395" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H395" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I395" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J395" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="K395" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L395" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M395" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N395" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O395" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P395" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q395" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R395" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S393" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="T393" s="7" t="s">
-        <v>981</v>
-      </c>
-      <c r="U393" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="V393" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="394" ht="14.25">
-      <c r="A394" s="8">
-        <v>1247</v>
-      </c>
-      <c r="B394" s="7" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C394" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D394" s="7" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E394" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F394" s="7" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G394" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H394" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I394" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J394" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="K394" s="7" t="s">
-        <v>1142</v>
-      </c>
-      <c r="L394" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M394" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N394" s="7" t="s">
-        <v>1143</v>
-      </c>
-      <c r="O394" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P394" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q394" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="R394" s="7" t="s">
-        <v>1144</v>
-      </c>
-      <c r="S394" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="T394" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U394" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V394" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="395" ht="14.25">
-      <c r="A395" s="5">
-        <v>109621953</v>
-      </c>
-      <c r="B395" s="6" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C395" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D395" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="E395" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F395" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="G395" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H395" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I395" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J395" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="K395" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L395" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M395" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N395" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="O395" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P395" s="7" t="s">
-        <v>1146</v>
-      </c>
-      <c r="Q395" s="7" t="s">
-        <v>1147</v>
-      </c>
-      <c r="R395" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="S395" s="7" t="s">
-        <v>1148</v>
+        <v>92</v>
       </c>
       <c r="T395" s="7" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="U395" s="7" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="V395" s="7" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
     </row>
     <row r="396" ht="14.25">
       <c r="A396" s="8">
         <v>3011611105</v>
       </c>
-      <c r="B396" s="9" t="s">
+      <c r="B396" s="7" t="s">
         <v>1149</v>
       </c>
       <c r="C396" s="7" t="s">
@@ -31308,7 +31297,7 @@
         <v>27</v>
       </c>
       <c r="I396" s="7" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="J396" s="7" t="s">
         <v>928</v>
@@ -31351,23 +31340,23 @@
       </c>
     </row>
     <row r="397" ht="14.25">
-      <c r="A397" s="8">
-        <v>3011611105</v>
-      </c>
-      <c r="B397" s="7" t="s">
-        <v>1149</v>
+      <c r="A397" s="5">
+        <v>13601308</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>1150</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D397" s="7" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="E397" s="7" t="s">
-        <v>231</v>
+        <v>398</v>
       </c>
       <c r="F397" s="7" t="s">
-        <v>152</v>
+        <v>655</v>
       </c>
       <c r="G397" s="7" t="s">
         <v>27</v>
@@ -31376,108 +31365,108 @@
         <v>27</v>
       </c>
       <c r="I397" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="J397" s="7" t="s">
-        <v>928</v>
+        <v>530</v>
       </c>
       <c r="K397" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L397" s="7" t="s">
-        <v>144</v>
+        <v>507</v>
       </c>
       <c r="M397" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N397" s="7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="O397" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="P397" s="7" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="Q397" s="7" t="s">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="R397" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S397" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="T397" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U397" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V397" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="398" ht="14.25">
+      <c r="A398" s="8">
+        <v>539782187</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D398" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="E398" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F398" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G398" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H398" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I398" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J398" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K398" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L398" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M398" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N398" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O398" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P398" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q398" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R398" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S397" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="T397" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="U397" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="V397" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="398" ht="14.25">
-      <c r="A398" s="5">
-        <v>13601308</v>
-      </c>
-      <c r="B398" s="6" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C398" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D398" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E398" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F398" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="G398" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H398" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I398" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J398" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="K398" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L398" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="M398" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N398" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O398" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P398" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q398" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="R398" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="S398" s="7" t="s">
-        <v>378</v>
+        <v>260</v>
       </c>
       <c r="T398" s="7" t="s">
-        <v>1062</v>
+        <v>341</v>
       </c>
       <c r="U398" s="7" t="s">
         <v>27</v>
@@ -31488,64 +31477,64 @@
     </row>
     <row r="399" ht="14.25">
       <c r="A399" s="8">
-        <v>539782187</v>
+        <v>3144578369</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D399" s="7" t="s">
-        <v>538</v>
+        <v>1153</v>
       </c>
       <c r="E399" s="7" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F399" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="G399" s="7" t="s">
-        <v>27</v>
+        <v>511</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>27</v>
+        <v>855</v>
       </c>
       <c r="I399" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J399" s="7" t="s">
-        <v>142</v>
+        <v>1154</v>
       </c>
       <c r="K399" s="7" t="s">
-        <v>216</v>
+        <v>1155</v>
       </c>
       <c r="L399" s="7" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="M399" s="7" t="s">
-        <v>27</v>
+        <v>1017</v>
       </c>
       <c r="N399" s="7" t="s">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="O399" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P399" s="7" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="Q399" s="7" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="R399" s="7" t="s">
-        <v>91</v>
+        <v>1156</v>
       </c>
       <c r="S399" s="7" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="T399" s="7" t="s">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="U399" s="7" t="s">
         <v>27</v>
@@ -31556,9 +31545,9 @@
     </row>
     <row r="400" ht="14.25">
       <c r="A400" s="8">
-        <v>3144578369</v>
-      </c>
-      <c r="B400" s="7" t="s">
+        <v>340933203938</v>
+      </c>
+      <c r="B400" s="9" t="s">
         <v>1152</v>
       </c>
       <c r="C400" s="7" t="s">
@@ -31592,7 +31581,7 @@
         <v>144</v>
       </c>
       <c r="M400" s="7" t="s">
-        <v>1017</v>
+        <v>27</v>
       </c>
       <c r="N400" s="7" t="s">
         <v>145</v>
@@ -31626,44 +31615,44 @@
       <c r="A401" s="8">
         <v>340933203938</v>
       </c>
-      <c r="B401" s="9" t="s">
+      <c r="B401" s="7" t="s">
         <v>1152</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D401" s="7" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="E401" s="7" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="F401" s="7" t="s">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="G401" s="7" t="s">
-        <v>511</v>
+        <v>633</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>855</v>
+        <v>1158</v>
       </c>
       <c r="I401" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J401" s="7" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="K401" s="7" t="s">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="L401" s="7" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="M401" s="7" t="s">
-        <v>27</v>
+        <v>1017</v>
       </c>
       <c r="N401" s="7" t="s">
-        <v>145</v>
+        <v>495</v>
       </c>
       <c r="O401" s="7" t="s">
         <v>27</v>
@@ -31672,16 +31661,16 @@
         <v>27</v>
       </c>
       <c r="Q401" s="7" t="s">
-        <v>259</v>
+        <v>401</v>
       </c>
       <c r="R401" s="7" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="S401" s="7" t="s">
-        <v>237</v>
+        <v>793</v>
       </c>
       <c r="T401" s="7" t="s">
-        <v>80</v>
+        <v>751</v>
       </c>
       <c r="U401" s="7" t="s">
         <v>27</v>
@@ -31692,158 +31681,158 @@
     </row>
     <row r="402" ht="14.25">
       <c r="A402" s="8">
-        <v>340933203938</v>
+        <v>3014365400</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="C402" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>1157</v>
+        <v>109</v>
       </c>
       <c r="E402" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F402" s="7" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="G402" s="7" t="s">
-        <v>633</v>
+        <v>27</v>
       </c>
       <c r="H402" s="7" t="s">
-        <v>1158</v>
+        <v>27</v>
       </c>
       <c r="I402" s="7" t="s">
-        <v>27</v>
+        <v>664</v>
       </c>
       <c r="J402" s="7" t="s">
-        <v>1159</v>
+        <v>250</v>
       </c>
       <c r="K402" s="7" t="s">
-        <v>1160</v>
+        <v>57</v>
       </c>
       <c r="L402" s="7" t="s">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="M402" s="7" t="s">
-        <v>1017</v>
+        <v>27</v>
       </c>
       <c r="N402" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O402" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P402" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q402" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="R402" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S402" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="T402" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="U402" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="V402" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="403" ht="14.25">
+      <c r="A403" s="5">
+        <v>54716</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D403" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E403" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F403" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G403" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H403" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I403" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J403" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K403" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L403" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M403" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N403" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="O402" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P402" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q402" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="R402" s="7" t="s">
-        <v>1161</v>
-      </c>
-      <c r="S402" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="T402" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="U402" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V402" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="403" ht="14.25">
-      <c r="A403" s="8">
-        <v>3014365400</v>
-      </c>
-      <c r="B403" s="7" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C403" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D403" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E403" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F403" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G403" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H403" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I403" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="J403" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K403" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L403" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M403" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N403" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="O403" s="7" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="P403" s="7" t="s">
-        <v>61</v>
+        <v>1164</v>
       </c>
       <c r="Q403" s="7" t="s">
-        <v>259</v>
+        <v>46</v>
       </c>
       <c r="R403" s="7" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="S403" s="7" t="s">
-        <v>292</v>
+        <v>164</v>
       </c>
       <c r="T403" s="7" t="s">
-        <v>981</v>
+        <v>1085</v>
       </c>
       <c r="U403" s="7" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="V403" s="7" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
     </row>
     <row r="404" ht="14.25">
       <c r="A404" s="5">
-        <v>54716</v>
+        <v>13601196</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D404" s="7" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="E404" s="7" t="s">
         <v>364</v>
       </c>
       <c r="F404" s="7" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="G404" s="7" t="s">
         <v>27</v>
@@ -31855,37 +31844,37 @@
         <v>27</v>
       </c>
       <c r="J404" s="7" t="s">
-        <v>530</v>
+        <v>344</v>
       </c>
       <c r="K404" s="7" t="s">
-        <v>460</v>
+        <v>679</v>
       </c>
       <c r="L404" s="7" t="s">
-        <v>507</v>
+        <v>43</v>
       </c>
       <c r="M404" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N404" s="7" t="s">
-        <v>495</v>
+        <v>589</v>
       </c>
       <c r="O404" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P404" s="7" t="s">
-        <v>1164</v>
+        <v>32</v>
       </c>
       <c r="Q404" s="7" t="s">
-        <v>46</v>
+        <v>798</v>
       </c>
       <c r="R404" s="7" t="s">
         <v>47</v>
       </c>
       <c r="S404" s="7" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="T404" s="7" t="s">
-        <v>1165</v>
+        <v>796</v>
       </c>
       <c r="U404" s="7" t="s">
         <v>27</v>
@@ -31895,65 +31884,65 @@
       </c>
     </row>
     <row r="405" ht="14.25">
-      <c r="A405" s="5">
-        <v>13601196</v>
-      </c>
-      <c r="B405" s="6" t="s">
+      <c r="A405" s="8">
+        <v>1279</v>
+      </c>
+      <c r="B405" s="7" t="s">
         <v>1166</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="D405" s="7" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="E405" s="7" t="s">
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="F405" s="7" t="s">
-        <v>391</v>
+        <v>70</v>
       </c>
       <c r="G405" s="7" t="s">
-        <v>27</v>
+        <v>854</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>27</v>
+        <v>512</v>
       </c>
       <c r="I405" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J405" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="K405" s="7" t="s">
-        <v>679</v>
+        <v>57</v>
       </c>
       <c r="L405" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="M405" s="7" t="s">
-        <v>27</v>
+        <v>1167</v>
       </c>
       <c r="N405" s="7" t="s">
-        <v>589</v>
+        <v>198</v>
       </c>
       <c r="O405" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P405" s="7" t="s">
-        <v>32</v>
+        <v>420</v>
       </c>
       <c r="Q405" s="7" t="s">
-        <v>799</v>
+        <v>132</v>
       </c>
       <c r="R405" s="7" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="S405" s="7" t="s">
-        <v>48</v>
+        <v>409</v>
       </c>
       <c r="T405" s="7" t="s">
-        <v>797</v>
+        <v>245</v>
       </c>
       <c r="U405" s="7" t="s">
         <v>27</v>
@@ -31964,90 +31953,90 @@
     </row>
     <row r="406" ht="14.25">
       <c r="A406" s="8">
-        <v>1279</v>
+        <v>3014365213</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="D406" s="7" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="E406" s="7" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="F406" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G406" s="7" t="s">
-        <v>854</v>
+        <v>27</v>
       </c>
       <c r="H406" s="7" t="s">
-        <v>512</v>
+        <v>27</v>
       </c>
       <c r="I406" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J406" s="7" t="s">
-        <v>323</v>
+        <v>56</v>
       </c>
       <c r="K406" s="7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="L406" s="7" t="s">
-        <v>58</v>
+        <v>284</v>
       </c>
       <c r="M406" s="7" t="s">
-        <v>1168</v>
+        <v>27</v>
       </c>
       <c r="N406" s="7" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="O406" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="P406" s="7" t="s">
-        <v>420</v>
+        <v>61</v>
       </c>
       <c r="Q406" s="7" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="R406" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="S406" s="7" t="s">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="T406" s="7" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="U406" s="7" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="V406" s="7" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
     </row>
     <row r="407" ht="14.25">
       <c r="A407" s="8">
-        <v>3014365213</v>
+        <v>3013614185</v>
       </c>
       <c r="B407" s="7" t="s">
         <v>1169</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="D407" s="7" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="E407" s="7" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="F407" s="7" t="s">
-        <v>70</v>
+        <v>640</v>
       </c>
       <c r="G407" s="7" t="s">
         <v>27</v>
@@ -32056,202 +32045,202 @@
         <v>27</v>
       </c>
       <c r="I407" s="7" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="J407" s="7" t="s">
-        <v>56</v>
+        <v>933</v>
       </c>
       <c r="K407" s="7" t="s">
-        <v>112</v>
+        <v>625</v>
       </c>
       <c r="L407" s="7" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="M407" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N407" s="7" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="O407" s="7" t="s">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c r="P407" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q407" s="7" t="s">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="R407" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="S407" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="T407" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="U407" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="V407" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="408" ht="14.25">
+      <c r="A408" s="5">
+        <v>109218510</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D408" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E408" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F408" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G408" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H408" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I408" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J408" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K408" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L408" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M408" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N408" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="O408" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P408" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q408" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="R408" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="S408" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T408" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="U408" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V408" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="409" ht="14.25">
+      <c r="A409" s="8">
+        <v>3125191993</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D409" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E409" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F409" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G409" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H409" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I409" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J409" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K409" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L409" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M409" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N409" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O409" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P409" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q409" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R409" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S407" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="T407" s="7" t="s">
+      <c r="S409" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="T409" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="U407" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="V407" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="408" ht="14.25">
-      <c r="A408" s="8">
-        <v>3013614185</v>
-      </c>
-      <c r="B408" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C408" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D408" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E408" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F408" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="G408" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H408" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I408" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="J408" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="K408" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="L408" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M408" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N408" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O408" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P408" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q408" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="R408" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="S408" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="T408" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="U408" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="V408" s="7" t="s">
+      <c r="U409" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="V409" s="7" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="409" ht="14.25">
-      <c r="A409" s="5">
-        <v>109218510</v>
-      </c>
-      <c r="B409" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C409" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D409" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E409" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F409" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G409" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H409" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I409" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J409" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K409" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L409" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="M409" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N409" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="O409" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P409" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q409" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="R409" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="S409" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T409" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="U409" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V409" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="410" ht="14.25">
       <c r="A410" s="8">
-        <v>3125191993</v>
+        <v>1387</v>
       </c>
       <c r="B410" s="7" t="s">
         <v>1172</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D410" s="7" t="s">
-        <v>52</v>
+        <v>538</v>
       </c>
       <c r="E410" s="7" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="F410" s="7" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="G410" s="7" t="s">
         <v>27</v>
@@ -32260,202 +32249,202 @@
         <v>27</v>
       </c>
       <c r="I410" s="7" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="J410" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K410" s="7" t="s">
-        <v>73</v>
+        <v>735</v>
       </c>
       <c r="L410" s="7" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="M410" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N410" s="7" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O410" s="7" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="P410" s="7" t="s">
         <v>89</v>
       </c>
       <c r="Q410" s="7" t="s">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="R410" s="7" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="S410" s="7" t="s">
-        <v>485</v>
+        <v>260</v>
       </c>
       <c r="T410" s="7" t="s">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="U410" s="7" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="V410" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="411" ht="14.25">
+      <c r="A411" s="5">
+        <v>2401</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D411" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E411" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F411" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G411" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="H411" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="I411" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J411" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K411" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L411" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M411" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N411" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="O411" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P411" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q411" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="R411" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S411" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="T411" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="U411" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V411" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="412" ht="14.25">
+      <c r="A412" s="8">
+        <v>3013614200</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D412" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E412" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F412" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G412" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H412" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I412" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J412" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K412" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L412" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M412" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N412" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O412" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P412" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q412" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="R412" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="S412" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="T412" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="U412" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="V412" s="7" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="411" ht="14.25">
-      <c r="A411" s="8">
-        <v>1387</v>
-      </c>
-      <c r="B411" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C411" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D411" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="E411" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F411" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G411" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H411" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I411" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J411" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K411" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="L411" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M411" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N411" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O411" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P411" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q411" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="R411" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="S411" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="T411" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="U411" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V411" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="412" ht="14.25">
-      <c r="A412" s="5">
-        <v>2401</v>
-      </c>
-      <c r="B412" s="6" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C412" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D412" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E412" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F412" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G412" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="H412" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="I412" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J412" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K412" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L412" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M412" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N412" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="O412" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P412" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q412" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="R412" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S412" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="T412" s="7" t="s">
-        <v>1069</v>
-      </c>
-      <c r="U412" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V412" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="413" ht="14.25">
       <c r="A413" s="8">
-        <v>3013614200</v>
+        <v>72352788</v>
       </c>
       <c r="B413" s="7" t="s">
         <v>1174</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="F413" s="7" t="s">
-        <v>481</v>
+        <v>110</v>
       </c>
       <c r="G413" s="7" t="s">
         <v>27</v>
@@ -32464,66 +32453,66 @@
         <v>27</v>
       </c>
       <c r="I413" s="7" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="J413" s="7" t="s">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="K413" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L413" s="7" t="s">
-        <v>312</v>
+        <v>154</v>
       </c>
       <c r="M413" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N413" s="7" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="O413" s="7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="P413" s="7" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="Q413" s="7" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="R413" s="7" t="s">
-        <v>1144</v>
+        <v>78</v>
       </c>
       <c r="S413" s="7" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="T413" s="7" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="U413" s="7" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="V413" s="7" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
     </row>
     <row r="414" ht="14.25">
       <c r="A414" s="8">
-        <v>72352788</v>
+        <v>735</v>
       </c>
       <c r="B414" s="7" t="s">
         <v>1175</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D414" s="7" t="s">
         <v>538</v>
       </c>
       <c r="E414" s="7" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="F414" s="7" t="s">
-        <v>110</v>
+        <v>1135</v>
       </c>
       <c r="G414" s="7" t="s">
         <v>27</v>
@@ -32532,66 +32521,66 @@
         <v>27</v>
       </c>
       <c r="I414" s="7" t="s">
-        <v>269</v>
+        <v>27</v>
       </c>
       <c r="J414" s="7" t="s">
-        <v>297</v>
+        <v>56</v>
       </c>
       <c r="K414" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="L414" s="7" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="M414" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N414" s="7" t="s">
-        <v>189</v>
+        <v>1176</v>
       </c>
       <c r="O414" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="P414" s="7" t="s">
-        <v>251</v>
+        <v>1177</v>
       </c>
       <c r="Q414" s="7" t="s">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c r="R414" s="7" t="s">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="S414" s="7" t="s">
-        <v>201</v>
+        <v>559</v>
       </c>
       <c r="T414" s="7" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="U414" s="7" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="V414" s="7" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
     </row>
     <row r="415" ht="14.25">
       <c r="A415" s="8">
-        <v>735</v>
+        <v>11011994</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="E415" s="7" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="F415" s="7" t="s">
-        <v>1135</v>
+        <v>131</v>
       </c>
       <c r="G415" s="7" t="s">
         <v>27</v>
@@ -32603,10 +32592,10 @@
         <v>27</v>
       </c>
       <c r="J415" s="7" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="K415" s="7" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="L415" s="7" t="s">
         <v>27</v>
@@ -32615,22 +32604,22 @@
         <v>27</v>
       </c>
       <c r="N415" s="7" t="s">
-        <v>1177</v>
+        <v>198</v>
       </c>
       <c r="O415" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P415" s="7" t="s">
-        <v>1178</v>
+        <v>89</v>
       </c>
       <c r="Q415" s="7" t="s">
-        <v>27</v>
+        <v>482</v>
       </c>
       <c r="R415" s="7" t="s">
-        <v>380</v>
+        <v>27</v>
       </c>
       <c r="S415" s="7" t="s">
-        <v>559</v>
+        <v>360</v>
       </c>
       <c r="T415" s="7" t="s">
         <v>27</v>
@@ -32647,10 +32636,10 @@
         <v>11011994</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D416" s="7" t="s">
         <v>480</v>
@@ -32712,25 +32701,25 @@
     </row>
     <row r="417" ht="14.25">
       <c r="A417" s="8">
-        <v>11011994</v>
+        <v>538920253</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>1179</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D417" s="7" t="s">
-        <v>480</v>
+        <v>52</v>
       </c>
       <c r="E417" s="7" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="F417" s="7" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="G417" s="7" t="s">
-        <v>27</v>
+        <v>356</v>
       </c>
       <c r="H417" s="7" t="s">
         <v>27</v>
@@ -32739,19 +32728,19 @@
         <v>27</v>
       </c>
       <c r="J417" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K417" s="7" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="L417" s="7" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="M417" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N417" s="7" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="O417" s="7" t="s">
         <v>27</v>
@@ -32760,16 +32749,16 @@
         <v>89</v>
       </c>
       <c r="Q417" s="7" t="s">
-        <v>482</v>
+        <v>90</v>
       </c>
       <c r="R417" s="7" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="S417" s="7" t="s">
-        <v>360</v>
+        <v>92</v>
       </c>
       <c r="T417" s="7" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="U417" s="7" t="s">
         <v>27</v>
@@ -32780,7 +32769,7 @@
     </row>
     <row r="418" ht="14.25">
       <c r="A418" s="8">
-        <v>538920253</v>
+        <v>3386</v>
       </c>
       <c r="B418" s="7" t="s">
         <v>1180</v>
@@ -32789,16 +32778,16 @@
         <v>84</v>
       </c>
       <c r="D418" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E418" s="7" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="F418" s="7" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="G418" s="7" t="s">
-        <v>356</v>
+        <v>27</v>
       </c>
       <c r="H418" s="7" t="s">
         <v>27</v>
@@ -32807,13 +32796,13 @@
         <v>27</v>
       </c>
       <c r="J418" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K418" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="L418" s="7" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="M418" s="7" t="s">
         <v>27</v>
@@ -32825,19 +32814,19 @@
         <v>27</v>
       </c>
       <c r="P418" s="7" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="Q418" s="7" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="R418" s="7" t="s">
-        <v>320</v>
+        <v>91</v>
       </c>
       <c r="S418" s="7" t="s">
-        <v>92</v>
+        <v>1181</v>
       </c>
       <c r="T418" s="7" t="s">
-        <v>138</v>
+        <v>484</v>
       </c>
       <c r="U418" s="7" t="s">
         <v>27</v>
@@ -32847,23 +32836,23 @@
       </c>
     </row>
     <row r="419" ht="14.25">
-      <c r="A419" s="8">
-        <v>3386</v>
-      </c>
-      <c r="B419" s="7" t="s">
-        <v>1181</v>
+      <c r="A419" s="5">
+        <v>6</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>1182</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E419" s="7" t="s">
-        <v>53</v>
+        <v>398</v>
       </c>
       <c r="F419" s="7" t="s">
-        <v>110</v>
+        <v>1183</v>
       </c>
       <c r="G419" s="7" t="s">
         <v>27</v>
@@ -32875,37 +32864,37 @@
         <v>27</v>
       </c>
       <c r="J419" s="7" t="s">
-        <v>142</v>
+        <v>489</v>
       </c>
       <c r="K419" s="7" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="L419" s="7" t="s">
-        <v>274</v>
+        <v>415</v>
       </c>
       <c r="M419" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N419" s="7" t="s">
-        <v>145</v>
+        <v>424</v>
       </c>
       <c r="O419" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P419" s="7" t="s">
-        <v>267</v>
+        <v>1081</v>
       </c>
       <c r="Q419" s="7" t="s">
-        <v>233</v>
+        <v>889</v>
       </c>
       <c r="R419" s="7" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="S419" s="7" t="s">
-        <v>1182</v>
+        <v>164</v>
       </c>
       <c r="T419" s="7" t="s">
-        <v>484</v>
+        <v>373</v>
       </c>
       <c r="U419" s="7" t="s">
         <v>27</v>
@@ -32916,22 +32905,22 @@
     </row>
     <row r="420" ht="14.25">
       <c r="A420" s="5">
-        <v>6</v>
+        <v>13198941</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C420" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="E420" s="7" t="s">
         <v>398</v>
       </c>
       <c r="F420" s="7" t="s">
-        <v>1184</v>
+        <v>722</v>
       </c>
       <c r="G420" s="7" t="s">
         <v>27</v>
@@ -32943,37 +32932,37 @@
         <v>27</v>
       </c>
       <c r="J420" s="7" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="K420" s="7" t="s">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="L420" s="7" t="s">
-        <v>415</v>
+        <v>507</v>
       </c>
       <c r="M420" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N420" s="7" t="s">
-        <v>424</v>
+        <v>162</v>
       </c>
       <c r="O420" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P420" s="7" t="s">
-        <v>1081</v>
+        <v>32</v>
       </c>
       <c r="Q420" s="7" t="s">
-        <v>889</v>
+        <v>798</v>
       </c>
       <c r="R420" s="7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="S420" s="7" t="s">
-        <v>164</v>
+        <v>667</v>
       </c>
       <c r="T420" s="7" t="s">
-        <v>373</v>
+        <v>1185</v>
       </c>
       <c r="U420" s="7" t="s">
         <v>27</v>
@@ -32984,10 +32973,10 @@
     </row>
     <row r="421" ht="14.25">
       <c r="A421" s="5">
-        <v>13198941</v>
+        <v>11899977</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>23</v>
@@ -32996,10 +32985,10 @@
         <v>177</v>
       </c>
       <c r="E421" s="7" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="F421" s="7" t="s">
-        <v>722</v>
+        <v>40</v>
       </c>
       <c r="G421" s="7" t="s">
         <v>27</v>
@@ -33011,10 +33000,10 @@
         <v>27</v>
       </c>
       <c r="J421" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="K421" s="7" t="s">
-        <v>392</v>
+        <v>181</v>
       </c>
       <c r="L421" s="7" t="s">
         <v>507</v>
@@ -33023,25 +33012,25 @@
         <v>27</v>
       </c>
       <c r="N421" s="7" t="s">
-        <v>162</v>
+        <v>424</v>
       </c>
       <c r="O421" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P421" s="7" t="s">
-        <v>32</v>
+        <v>1021</v>
       </c>
       <c r="Q421" s="7" t="s">
-        <v>799</v>
+        <v>401</v>
       </c>
       <c r="R421" s="7" t="s">
         <v>47</v>
       </c>
       <c r="S421" s="7" t="s">
-        <v>667</v>
+        <v>378</v>
       </c>
       <c r="T421" s="7" t="s">
-        <v>1186</v>
+        <v>49</v>
       </c>
       <c r="U421" s="7" t="s">
         <v>27</v>
@@ -33051,23 +33040,23 @@
       </c>
     </row>
     <row r="422" ht="14.25">
-      <c r="A422" s="5">
-        <v>11899977</v>
-      </c>
-      <c r="B422" s="6" t="s">
+      <c r="A422" s="8">
+        <v>3372307546</v>
+      </c>
+      <c r="B422" s="7" t="s">
         <v>1187</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="D422" s="7" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="E422" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F422" s="7" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="G422" s="7" t="s">
         <v>27</v>
@@ -33079,37 +33068,37 @@
         <v>27</v>
       </c>
       <c r="J422" s="7" t="s">
-        <v>411</v>
+        <v>323</v>
       </c>
       <c r="K422" s="7" t="s">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="L422" s="7" t="s">
-        <v>507</v>
+        <v>144</v>
       </c>
       <c r="M422" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N422" s="7" t="s">
-        <v>424</v>
+        <v>198</v>
       </c>
       <c r="O422" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P422" s="7" t="s">
-        <v>1021</v>
+        <v>219</v>
       </c>
       <c r="Q422" s="7" t="s">
-        <v>401</v>
+        <v>90</v>
       </c>
       <c r="R422" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="S422" s="7" t="s">
-        <v>378</v>
+        <v>559</v>
       </c>
       <c r="T422" s="7" t="s">
-        <v>49</v>
+        <v>354</v>
       </c>
       <c r="U422" s="7" t="s">
         <v>27</v>
@@ -33120,22 +33109,22 @@
     </row>
     <row r="423" ht="14.25">
       <c r="A423" s="8">
-        <v>3372307546</v>
+        <v>256</v>
       </c>
       <c r="B423" s="7" t="s">
         <v>1188</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="D423" s="7" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="E423" s="7" t="s">
-        <v>352</v>
+        <v>1189</v>
       </c>
       <c r="F423" s="7" t="s">
-        <v>240</v>
+        <v>750</v>
       </c>
       <c r="G423" s="7" t="s">
         <v>27</v>
@@ -33147,37 +33136,37 @@
         <v>27</v>
       </c>
       <c r="J423" s="7" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="K423" s="7" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
       <c r="L423" s="7" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="M423" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N423" s="7" t="s">
-        <v>198</v>
+        <v>1189</v>
       </c>
       <c r="O423" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P423" s="7" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="Q423" s="7" t="s">
-        <v>90</v>
+        <v>1190</v>
       </c>
       <c r="R423" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="S423" s="7" t="s">
-        <v>559</v>
+        <v>835</v>
       </c>
       <c r="T423" s="7" t="s">
-        <v>354</v>
+        <v>27</v>
       </c>
       <c r="U423" s="7" t="s">
         <v>27</v>
@@ -33188,22 +33177,22 @@
     </row>
     <row r="424" ht="14.25">
       <c r="A424" s="8">
-        <v>256</v>
+        <v>12021476</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C424" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D424" s="7" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="E424" s="7" t="s">
-        <v>1190</v>
+        <v>53</v>
       </c>
       <c r="F424" s="7" t="s">
-        <v>750</v>
+        <v>86</v>
       </c>
       <c r="G424" s="7" t="s">
         <v>27</v>
@@ -33215,173 +33204,173 @@
         <v>27</v>
       </c>
       <c r="J424" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K424" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L424" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M424" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N424" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O424" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P424" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q424" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R424" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="S424" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T424" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="U424" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V424" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="425" ht="14.25">
+      <c r="A425" s="5">
+        <v>12021476</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D425" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="E425" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F425" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G425" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H425" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I425" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J425" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K424" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L424" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M424" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N424" s="7" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O424" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P424" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q424" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="R424" s="7" t="s">
+      <c r="K425" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L425" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M425" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N425" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O425" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P425" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q425" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="R425" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S424" s="7" t="s">
-        <v>835</v>
-      </c>
-      <c r="T424" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="U424" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V424" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="425" ht="14.25">
-      <c r="A425" s="8">
-        <v>12021476</v>
-      </c>
-      <c r="B425" s="7" t="s">
+      <c r="S425" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T425" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="U425" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V425" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="426" ht="14.25">
+      <c r="A426" s="8">
+        <v>3372307657</v>
+      </c>
+      <c r="B426" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="C425" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D425" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E425" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F425" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G425" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H425" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I425" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J425" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K425" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L425" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M425" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N425" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O425" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P425" s="7" t="s">
+      <c r="C426" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D426" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E426" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F426" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G426" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H426" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I426" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J426" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K426" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L426" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M426" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N426" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O426" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P426" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q425" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R425" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="S425" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T425" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="U425" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V425" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="426" ht="14.25">
-      <c r="A426" s="5">
-        <v>12021476</v>
-      </c>
-      <c r="B426" s="6" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C426" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D426" s="7" t="s">
-        <v>930</v>
-      </c>
-      <c r="E426" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F426" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G426" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H426" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I426" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J426" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K426" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L426" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="M426" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N426" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O426" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P426" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q426" s="7" t="s">
-        <v>535</v>
+        <v>340</v>
       </c>
       <c r="R426" s="7" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="S426" s="7" t="s">
-        <v>27</v>
+        <v>524</v>
       </c>
       <c r="T426" s="7" t="s">
-        <v>870</v>
+        <v>313</v>
       </c>
       <c r="U426" s="7" t="s">
         <v>27</v>
@@ -33392,22 +33381,22 @@
     </row>
     <row r="427" ht="14.25">
       <c r="A427" s="8">
-        <v>3372307657</v>
+        <v>3135245753</v>
       </c>
       <c r="B427" s="7" t="s">
         <v>1193</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="D427" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E427" s="7" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="F427" s="7" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="G427" s="7" t="s">
         <v>27</v>
@@ -33416,54 +33405,54 @@
         <v>27</v>
       </c>
       <c r="I427" s="7" t="s">
-        <v>27</v>
+        <v>1194</v>
       </c>
       <c r="J427" s="7" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="K427" s="7" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="L427" s="7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="M427" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N427" s="7" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="O427" s="7" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="P427" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q427" s="7" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="R427" s="7" t="s">
-        <v>299</v>
+        <v>58</v>
       </c>
       <c r="S427" s="7" t="s">
-        <v>524</v>
+        <v>92</v>
       </c>
       <c r="T427" s="7" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="U427" s="7" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="V427" s="7" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
     </row>
     <row r="428" ht="14.25">
       <c r="A428" s="8">
-        <v>3135245753</v>
+        <v>71451872</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>84</v>
@@ -33472,10 +33461,10 @@
         <v>52</v>
       </c>
       <c r="E428" s="7" t="s">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="F428" s="7" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="G428" s="7" t="s">
         <v>27</v>
@@ -33484,25 +33473,25 @@
         <v>27</v>
       </c>
       <c r="I428" s="7" t="s">
-        <v>1195</v>
+        <v>153</v>
       </c>
       <c r="J428" s="7" t="s">
-        <v>303</v>
+        <v>72</v>
       </c>
       <c r="K428" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="L428" s="7" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="M428" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N428" s="7" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="O428" s="7" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="P428" s="7" t="s">
         <v>61</v>
@@ -33511,24 +33500,24 @@
         <v>259</v>
       </c>
       <c r="R428" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="S428" s="7" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="T428" s="7" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="U428" s="7" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="V428" s="7" t="s">
-        <v>150</v>
+        <v>651</v>
       </c>
     </row>
     <row r="429" ht="14.25">
       <c r="A429" s="8">
-        <v>71451872</v>
+        <v>3141494589</v>
       </c>
       <c r="B429" s="7" t="s">
         <v>1196</v>
@@ -33537,13 +33526,13 @@
         <v>84</v>
       </c>
       <c r="D429" s="7" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="E429" s="7" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="F429" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G429" s="7" t="s">
         <v>27</v>
@@ -33552,28 +33541,28 @@
         <v>27</v>
       </c>
       <c r="I429" s="7" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="J429" s="7" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="K429" s="7" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="L429" s="7" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="M429" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N429" s="7" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="O429" s="7" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="P429" s="7" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="Q429" s="7" t="s">
         <v>259</v>
@@ -33582,36 +33571,36 @@
         <v>91</v>
       </c>
       <c r="S429" s="7" t="s">
-        <v>147</v>
+        <v>559</v>
       </c>
       <c r="T429" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="U429" s="7" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="V429" s="7" t="s">
-        <v>651</v>
+        <v>150</v>
       </c>
     </row>
     <row r="430" ht="14.25">
       <c r="A430" s="8">
-        <v>3141494589</v>
+        <v>850</v>
       </c>
       <c r="B430" s="7" t="s">
         <v>1197</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D430" s="7" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E430" s="7" t="s">
-        <v>231</v>
+        <v>545</v>
       </c>
       <c r="F430" s="7" t="s">
-        <v>54</v>
+        <v>750</v>
       </c>
       <c r="G430" s="7" t="s">
         <v>27</v>
@@ -33620,66 +33609,66 @@
         <v>27</v>
       </c>
       <c r="I430" s="7" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="J430" s="7" t="s">
-        <v>232</v>
+        <v>399</v>
       </c>
       <c r="K430" s="7" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="L430" s="7" t="s">
-        <v>274</v>
+        <v>27</v>
       </c>
       <c r="M430" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N430" s="7" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="O430" s="7" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="P430" s="7" t="s">
-        <v>89</v>
+        <v>1146</v>
       </c>
       <c r="Q430" s="7" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="R430" s="7" t="s">
-        <v>91</v>
+        <v>532</v>
       </c>
       <c r="S430" s="7" t="s">
-        <v>559</v>
+        <v>1198</v>
       </c>
       <c r="T430" s="7" t="s">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="U430" s="7" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="V430" s="7" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
     </row>
     <row r="431" ht="14.25">
-      <c r="A431" s="8">
-        <v>850</v>
-      </c>
-      <c r="B431" s="7" t="s">
-        <v>1198</v>
+      <c r="A431" s="5">
+        <v>25955</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>1199</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D431" s="7" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="E431" s="7" t="s">
-        <v>545</v>
+        <v>342</v>
       </c>
       <c r="F431" s="7" t="s">
-        <v>750</v>
+        <v>179</v>
       </c>
       <c r="G431" s="7" t="s">
         <v>27</v>
@@ -33691,37 +33680,37 @@
         <v>27</v>
       </c>
       <c r="J431" s="7" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="K431" s="7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="L431" s="7" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="M431" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N431" s="7" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="O431" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P431" s="7" t="s">
-        <v>1146</v>
+        <v>183</v>
       </c>
       <c r="Q431" s="7" t="s">
-        <v>345</v>
+        <v>670</v>
       </c>
       <c r="R431" s="7" t="s">
         <v>532</v>
       </c>
       <c r="S431" s="7" t="s">
-        <v>1199</v>
+        <v>667</v>
       </c>
       <c r="T431" s="7" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="U431" s="7" t="s">
         <v>27</v>
@@ -33732,7 +33721,7 @@
     </row>
     <row r="432" ht="14.25">
       <c r="A432" s="5">
-        <v>25955</v>
+        <v>4149</v>
       </c>
       <c r="B432" s="6" t="s">
         <v>1200</v>
@@ -33744,7 +33733,7 @@
         <v>27</v>
       </c>
       <c r="E432" s="7" t="s">
-        <v>342</v>
+        <v>96</v>
       </c>
       <c r="F432" s="7" t="s">
         <v>179</v>
@@ -33762,34 +33751,34 @@
         <v>367</v>
       </c>
       <c r="K432" s="7" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="L432" s="7" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="M432" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N432" s="7" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="O432" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P432" s="7" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="Q432" s="7" t="s">
-        <v>670</v>
+        <v>798</v>
       </c>
       <c r="R432" s="7" t="s">
-        <v>532</v>
+        <v>104</v>
       </c>
       <c r="S432" s="7" t="s">
-        <v>667</v>
+        <v>1117</v>
       </c>
       <c r="T432" s="7" t="s">
-        <v>165</v>
+        <v>1201</v>
       </c>
       <c r="U432" s="7" t="s">
         <v>27</v>
@@ -33799,23 +33788,23 @@
       </c>
     </row>
     <row r="433" ht="14.25">
-      <c r="A433" s="5">
-        <v>4149</v>
-      </c>
-      <c r="B433" s="6" t="s">
-        <v>1201</v>
+      <c r="A433" s="8">
+        <v>10707843</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>1202</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>27</v>
+        <v>332</v>
       </c>
       <c r="E433" s="7" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="F433" s="7" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="G433" s="7" t="s">
         <v>27</v>
@@ -33827,37 +33816,37 @@
         <v>27</v>
       </c>
       <c r="J433" s="7" t="s">
-        <v>367</v>
+        <v>941</v>
       </c>
       <c r="K433" s="7" t="s">
-        <v>29</v>
+        <v>735</v>
       </c>
       <c r="L433" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M433" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N433" s="7" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="O433" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P433" s="7" t="s">
-        <v>32</v>
+        <v>353</v>
       </c>
       <c r="Q433" s="7" t="s">
-        <v>799</v>
+        <v>1203</v>
       </c>
       <c r="R433" s="7" t="s">
-        <v>104</v>
+        <v>299</v>
       </c>
       <c r="S433" s="7" t="s">
-        <v>1117</v>
+        <v>1204</v>
       </c>
       <c r="T433" s="7" t="s">
-        <v>1202</v>
+        <v>117</v>
       </c>
       <c r="U433" s="7" t="s">
         <v>27</v>
@@ -33868,22 +33857,22 @@
     </row>
     <row r="434" ht="14.25">
       <c r="A434" s="8">
-        <v>10707843</v>
+        <v>69716820</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>332</v>
+        <v>1065</v>
       </c>
       <c r="E434" s="7" t="s">
-        <v>248</v>
+        <v>810</v>
       </c>
       <c r="F434" s="7" t="s">
-        <v>131</v>
+        <v>1206</v>
       </c>
       <c r="G434" s="7" t="s">
         <v>27</v>
@@ -33892,46 +33881,46 @@
         <v>27</v>
       </c>
       <c r="I434" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J434" s="7" t="s">
-        <v>941</v>
+        <v>1207</v>
       </c>
       <c r="K434" s="7" t="s">
-        <v>735</v>
+        <v>1208</v>
       </c>
       <c r="L434" s="7" t="s">
-        <v>27</v>
+        <v>1209</v>
       </c>
       <c r="M434" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N434" s="7" t="s">
-        <v>198</v>
+        <v>1210</v>
       </c>
       <c r="O434" s="7" t="s">
-        <v>27</v>
+        <v>776</v>
       </c>
       <c r="P434" s="7" t="s">
-        <v>353</v>
+        <v>1211</v>
       </c>
       <c r="Q434" s="7" t="s">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="R434" s="7" t="s">
-        <v>299</v>
+        <v>779</v>
       </c>
       <c r="S434" s="7" t="s">
-        <v>1205</v>
+        <v>116</v>
       </c>
       <c r="T434" s="7" t="s">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="U434" s="7" t="s">
-        <v>27</v>
+        <v>783</v>
       </c>
       <c r="V434" s="7" t="s">
-        <v>27</v>
+        <v>783</v>
       </c>
     </row>
     <row r="435" ht="14.25">
@@ -33939,10 +33928,10 @@
         <v>69716820</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D435" s="7" t="s">
         <v>1065</v>
@@ -33951,7 +33940,7 @@
         <v>810</v>
       </c>
       <c r="F435" s="7" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G435" s="7" t="s">
         <v>27</v>
@@ -33963,28 +33952,28 @@
         <v>153</v>
       </c>
       <c r="J435" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K435" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="K435" s="7" t="s">
+      <c r="L435" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="L435" s="7" t="s">
+      <c r="M435" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N435" s="7" t="s">
         <v>1210</v>
-      </c>
-      <c r="M435" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N435" s="7" t="s">
-        <v>1211</v>
       </c>
       <c r="O435" s="7" t="s">
         <v>776</v>
       </c>
       <c r="P435" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="Q435" s="7" t="s">
         <v>1212</v>
-      </c>
-      <c r="Q435" s="7" t="s">
-        <v>1213</v>
       </c>
       <c r="R435" s="7" t="s">
         <v>779</v>
@@ -34004,22 +33993,22 @@
     </row>
     <row r="436" ht="14.25">
       <c r="A436" s="8">
-        <v>69716820</v>
+        <v>69912694</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>1206</v>
+        <v>1213</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D436" s="7" t="s">
-        <v>1065</v>
+        <v>52</v>
       </c>
       <c r="E436" s="7" t="s">
-        <v>810</v>
+        <v>248</v>
       </c>
       <c r="F436" s="7" t="s">
-        <v>1207</v>
+        <v>70</v>
       </c>
       <c r="G436" s="7" t="s">
         <v>27</v>
@@ -34028,119 +34017,119 @@
         <v>27</v>
       </c>
       <c r="I436" s="7" t="s">
-        <v>153</v>
+        <v>1194</v>
       </c>
       <c r="J436" s="7" t="s">
-        <v>1208</v>
+        <v>56</v>
       </c>
       <c r="K436" s="7" t="s">
-        <v>1209</v>
+        <v>216</v>
       </c>
       <c r="L436" s="7" t="s">
-        <v>1210</v>
+        <v>58</v>
       </c>
       <c r="M436" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N436" s="7" t="s">
-        <v>1211</v>
+        <v>88</v>
       </c>
       <c r="O436" s="7" t="s">
-        <v>776</v>
+        <v>60</v>
       </c>
       <c r="P436" s="7" t="s">
-        <v>1212</v>
+        <v>420</v>
       </c>
       <c r="Q436" s="7" t="s">
-        <v>1213</v>
+        <v>77</v>
       </c>
       <c r="R436" s="7" t="s">
-        <v>779</v>
+        <v>58</v>
       </c>
       <c r="S436" s="7" t="s">
         <v>116</v>
       </c>
       <c r="T436" s="7" t="s">
-        <v>288</v>
+        <v>484</v>
       </c>
       <c r="U436" s="7" t="s">
-        <v>783</v>
+        <v>265</v>
       </c>
       <c r="V436" s="7" t="s">
-        <v>783</v>
+        <v>67</v>
       </c>
     </row>
     <row r="437" ht="14.25">
-      <c r="A437" s="8">
-        <v>69912694</v>
-      </c>
-      <c r="B437" s="7" t="s">
+      <c r="A437">
+        <v>4752907071</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="C437" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D437" s="7" t="s">
+      <c r="C437" t="s">
+        <v>108</v>
+      </c>
+      <c r="D437" t="s">
         <v>52</v>
       </c>
-      <c r="E437" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F437" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G437" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H437" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I437" s="7" t="s">
-        <v>1195</v>
-      </c>
-      <c r="J437" s="7" t="s">
+      <c r="E437" t="s">
+        <v>53</v>
+      </c>
+      <c r="F437" t="s">
+        <v>722</v>
+      </c>
+      <c r="G437" t="s">
+        <v>27</v>
+      </c>
+      <c r="H437" t="s">
+        <v>27</v>
+      </c>
+      <c r="I437" t="s">
+        <v>27</v>
+      </c>
+      <c r="J437" t="s">
         <v>56</v>
       </c>
-      <c r="K437" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L437" s="7" t="s">
+      <c r="K437" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L437" t="s">
+        <v>30</v>
+      </c>
+      <c r="M437" t="s">
+        <v>27</v>
+      </c>
+      <c r="N437" t="s">
+        <v>508</v>
+      </c>
+      <c r="O437" t="s">
+        <v>27</v>
+      </c>
+      <c r="P437" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>259</v>
+      </c>
+      <c r="R437" t="s">
         <v>58</v>
       </c>
-      <c r="M437" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N437" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O437" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P437" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q437" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R437" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S437" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="T437" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="U437" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="V437" s="7" t="s">
-        <v>67</v>
+      <c r="S437" t="s">
+        <v>667</v>
+      </c>
+      <c r="T437" t="s">
+        <v>350</v>
+      </c>
+      <c r="U437" t="s">
+        <v>27</v>
+      </c>
+      <c r="V437" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="438" ht="14.25">
-      <c r="A438">
-        <v>4752907071</v>
+      <c r="A438" s="13">
+        <v>705071403530</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>1215</v>
@@ -34152,66 +34141,66 @@
         <v>52</v>
       </c>
       <c r="E438" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="F438" t="s">
-        <v>722</v>
+        <v>70</v>
       </c>
       <c r="G438" t="s">
-        <v>27</v>
+        <v>511</v>
       </c>
       <c r="H438" t="s">
-        <v>27</v>
+        <v>1216</v>
       </c>
       <c r="I438" t="s">
         <v>27</v>
       </c>
       <c r="J438" t="s">
-        <v>1216</v>
+        <v>236</v>
       </c>
       <c r="K438" t="s">
-        <v>1116</v>
+        <v>57</v>
       </c>
       <c r="L438" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="M438" t="s">
-        <v>27</v>
+        <v>1217</v>
       </c>
       <c r="N438" t="s">
-        <v>508</v>
+        <v>27</v>
       </c>
       <c r="O438" t="s">
         <v>27</v>
       </c>
       <c r="P438" t="s">
-        <v>27</v>
+        <v>1218</v>
       </c>
       <c r="Q438" t="s">
-        <v>259</v>
+        <v>474</v>
       </c>
       <c r="R438" t="s">
-        <v>58</v>
+        <v>1156</v>
       </c>
       <c r="S438" t="s">
-        <v>667</v>
+        <v>79</v>
       </c>
       <c r="T438" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="U438" t="s">
         <v>27</v>
       </c>
       <c r="V438" t="s">
-        <v>541</v>
+        <v>27</v>
       </c>
     </row>
     <row r="439" ht="14.25">
-      <c r="A439" s="13">
-        <v>705071403530</v>
+      <c r="A439">
+        <v>6166</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="C439" t="s">
         <v>108</v>
@@ -34220,52 +34209,52 @@
         <v>52</v>
       </c>
       <c r="E439" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="F439" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G439" t="s">
-        <v>511</v>
+        <v>27</v>
       </c>
       <c r="H439" t="s">
-        <v>1218</v>
+        <v>27</v>
       </c>
       <c r="I439" t="s">
         <v>27</v>
       </c>
       <c r="J439" t="s">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="K439" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="L439" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="M439" t="s">
-        <v>1219</v>
+        <v>27</v>
       </c>
       <c r="N439" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="O439" t="s">
         <v>27</v>
       </c>
       <c r="P439" t="s">
-        <v>1220</v>
+        <v>89</v>
       </c>
       <c r="Q439" t="s">
-        <v>474</v>
+        <v>259</v>
       </c>
       <c r="R439" t="s">
-        <v>1156</v>
+        <v>58</v>
       </c>
       <c r="S439" t="s">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="T439" t="s">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="U439" t="s">
         <v>27</v>
@@ -34276,211 +34265,211 @@
     </row>
     <row r="440" ht="14.25">
       <c r="A440">
-        <v>6166</v>
+        <v>74564747</v>
       </c>
       <c r="B440" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C440" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D440" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E440" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="F440" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G440" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H440" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I440" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="J440" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="K440" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L440" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M440" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N440" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O440" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P440" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q440" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="R440" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="S440" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="T440" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="U440" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="V440" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="441" ht="14.25">
+      <c r="A441" s="13">
+        <v>727942700387</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>1221</v>
-      </c>
-      <c r="C440" t="s">
-        <v>108</v>
-      </c>
-      <c r="D440" t="s">
-        <v>52</v>
-      </c>
-      <c r="E440" t="s">
-        <v>85</v>
-      </c>
-      <c r="F440" t="s">
-        <v>86</v>
-      </c>
-      <c r="G440" t="s">
-        <v>27</v>
-      </c>
-      <c r="H440" t="s">
-        <v>27</v>
-      </c>
-      <c r="I440" t="s">
-        <v>27</v>
-      </c>
-      <c r="J440" t="s">
-        <v>323</v>
-      </c>
-      <c r="K440" t="s">
-        <v>216</v>
-      </c>
-      <c r="L440" t="s">
-        <v>274</v>
-      </c>
-      <c r="M440" t="s">
-        <v>27</v>
-      </c>
-      <c r="N440" t="s">
-        <v>226</v>
-      </c>
-      <c r="O440" t="s">
-        <v>27</v>
-      </c>
-      <c r="P440" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q440" t="s">
-        <v>259</v>
-      </c>
-      <c r="R440" t="s">
-        <v>58</v>
-      </c>
-      <c r="S440" t="s">
-        <v>254</v>
-      </c>
-      <c r="T440" t="s">
-        <v>80</v>
-      </c>
-      <c r="U440" t="s">
-        <v>27</v>
-      </c>
-      <c r="V440" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="441" ht="14.25">
-      <c r="A441">
-        <v>74564747</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>1222</v>
       </c>
       <c r="C441" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D441" s="17" t="s">
+      <c r="D441" t="s">
         <v>52</v>
       </c>
-      <c r="E441" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="F441" s="18" t="s">
+      <c r="E441" t="s">
+        <v>85</v>
+      </c>
+      <c r="F441" t="s">
         <v>131</v>
       </c>
-      <c r="G441" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H441" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I441" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="J441" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="K441" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="L441" s="18" t="s">
+      <c r="G441" t="s">
+        <v>910</v>
+      </c>
+      <c r="H441" t="s">
+        <v>153</v>
+      </c>
+      <c r="I441" t="s">
+        <v>27</v>
+      </c>
+      <c r="J441" t="s">
+        <v>142</v>
+      </c>
+      <c r="K441" t="s">
+        <v>57</v>
+      </c>
+      <c r="L441" t="s">
         <v>144</v>
       </c>
-      <c r="M441" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N441" s="18" t="s">
+      <c r="M441" t="s">
+        <v>358</v>
+      </c>
+      <c r="N441" t="s">
         <v>145</v>
       </c>
-      <c r="O441" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P441" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q441" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="R441" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="S441" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="T441" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="U441" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="V441" s="18" t="s">
-        <v>82</v>
+      <c r="O441" t="s">
+        <v>27</v>
+      </c>
+      <c r="P441" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q441" t="s">
+        <v>137</v>
+      </c>
+      <c r="R441" t="s">
+        <v>299</v>
+      </c>
+      <c r="S441" t="s">
+        <v>237</v>
+      </c>
+      <c r="T441" t="s">
+        <v>148</v>
+      </c>
+      <c r="U441" t="s">
+        <v>27</v>
+      </c>
+      <c r="V441" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="442" ht="14.25">
-      <c r="A442" s="13">
-        <v>727942700387</v>
+      <c r="A442">
+        <v>3135087617</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C442" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D442" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E442" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="F442" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="G442" t="s">
-        <v>910</v>
+        <v>27</v>
       </c>
       <c r="H442" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="I442" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="J442" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="K442" t="s">
         <v>57</v>
       </c>
       <c r="L442" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="M442" t="s">
-        <v>358</v>
+        <v>27</v>
       </c>
       <c r="N442" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="O442" t="s">
-        <v>27</v>
+        <v>1223</v>
       </c>
       <c r="P442" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="Q442" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="R442" t="s">
-        <v>299</v>
+        <v>63</v>
       </c>
       <c r="S442" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="T442" t="s">
-        <v>148</v>
+        <v>948</v>
       </c>
       <c r="U442" t="s">
-        <v>27</v>
+        <v>956</v>
       </c>
       <c r="V442" t="s">
-        <v>27</v>
+        <v>651</v>
       </c>
     </row>
     <row r="443" ht="14.25">
       <c r="A443">
-        <v>3135087617</v>
+        <v>3014561961</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>1224</v>
@@ -34492,7 +34481,7 @@
         <v>69</v>
       </c>
       <c r="E443" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="F443" t="s">
         <v>70</v>
@@ -34504,66 +34493,66 @@
         <v>27</v>
       </c>
       <c r="I443" t="s">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="J443" t="s">
         <v>72</v>
       </c>
       <c r="K443" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="L443" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="M443" t="s">
         <v>27</v>
       </c>
       <c r="N443" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="O443" t="s">
-        <v>1225</v>
+        <v>334</v>
       </c>
       <c r="P443" t="s">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="Q443" t="s">
-        <v>90</v>
+        <v>474</v>
       </c>
       <c r="R443" t="s">
         <v>63</v>
       </c>
       <c r="S443" t="s">
-        <v>147</v>
+        <v>1225</v>
       </c>
       <c r="T443" t="s">
-        <v>948</v>
+        <v>354</v>
       </c>
       <c r="U443" t="s">
         <v>956</v>
       </c>
       <c r="V443" t="s">
-        <v>651</v>
+        <v>261</v>
       </c>
     </row>
     <row r="444" ht="14.25">
-      <c r="A444">
-        <v>3014561961</v>
-      </c>
-      <c r="B444" s="1" t="s">
+      <c r="A444" s="13">
+        <v>587</v>
+      </c>
+      <c r="B444" t="s">
         <v>1226</v>
       </c>
       <c r="C444" s="15" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D444" t="s">
-        <v>69</v>
+        <v>1227</v>
       </c>
       <c r="E444" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="F444" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G444" t="s">
         <v>27</v>
@@ -34572,46 +34561,46 @@
         <v>27</v>
       </c>
       <c r="I444" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="J444" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="K444" t="s">
         <v>216</v>
       </c>
       <c r="L444" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="M444" t="s">
         <v>27</v>
       </c>
       <c r="N444" t="s">
-        <v>189</v>
+        <v>1228</v>
       </c>
       <c r="O444" t="s">
-        <v>334</v>
+        <v>27</v>
       </c>
       <c r="P444" t="s">
-        <v>61</v>
+        <v>1229</v>
       </c>
       <c r="Q444" t="s">
-        <v>474</v>
+        <v>204</v>
       </c>
       <c r="R444" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="S444" t="s">
-        <v>1227</v>
+        <v>409</v>
       </c>
       <c r="T444" t="s">
-        <v>354</v>
+        <v>27</v>
       </c>
       <c r="U444" t="s">
-        <v>956</v>
+        <v>27</v>
       </c>
       <c r="V444" t="s">
-        <v>261</v>
+        <v>27</v>
       </c>
     </row>
     <row r="445" ht="14.25">
@@ -34623,9 +34612,7 @@
     <row r="447" ht="14.25">
       <c r="C447" s="15"/>
     </row>
-    <row r="448" ht="14.25">
-      <c r="C448" s="15"/>
-    </row>
+    <row r="448" ht="14.25"/>
     <row r="449" ht="14.25"/>
     <row r="450" ht="14.25"/>
     <row r="451" ht="14.25"/>
@@ -34643,7 +34630,6 @@
     <row r="463" ht="14.25"/>
     <row r="464" ht="14.25"/>
     <row r="465" ht="14.25"/>
-    <row r="466" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
